--- a/Mifos Automation Excels/Client/4441-CreateActiveCenterwithmeetingattachedasweeklyFriday-Modifymeeting-Repetesonevery2weeksonWednesday-abovechangeseffectfrom-15March2015.xlsx
+++ b/Mifos Automation Excels/Client/4441-CreateActiveCenterwithmeetingattachedasweeklyFriday-Modifymeeting-Repetesonevery2weeksonWednesday-abovechangeseffectfrom-15March2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -80,10 +80,10 @@
     <t>abovechangesareeffectivefrom</t>
   </si>
   <si>
-    <t>center4441</t>
-  </si>
-  <si>
     <t>verifycentername</t>
+  </si>
+  <si>
+    <t>center4441a</t>
   </si>
 </sst>
 </file>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -484,7 +484,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="4">
-        <v>42095</v>
+        <v>42005</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -625,7 +625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -633,12 +635,12 @@
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
